--- a/LAB_6/Result-Experiment1.xlsx
+++ b/LAB_6/Result-Experiment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program_file\ML\LAB_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C87874-A735-4E5F-B761-2E286FFAA4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F2663F-4386-488E-89BC-A2BF9CCBC4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
